--- a/Marketing/uci.roomme.xlsx
+++ b/Marketing/uci.roomme.xlsx
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">

--- a/Marketing/uci.roomme.xlsx
+++ b/Marketing/uci.roomme.xlsx
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">

--- a/Marketing/uci.roomme.xlsx
+++ b/Marketing/uci.roomme.xlsx
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">

--- a/Marketing/uci.roomme.xlsx
+++ b/Marketing/uci.roomme.xlsx
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">

--- a/Marketing/uci.roomme.xlsx
+++ b/Marketing/uci.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B378"/>
+  <dimension ref="A1:B327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>finleynewtonn</t>
+          <t>pompomian</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>siennarose.siennarose</t>
+          <t>brooks44hanna</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>champagnenathan2</t>
+          <t>bus.j.m</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>christianklenzzzzzz</t>
+          <t>laamough</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ciri.mae_mochi</t>
+          <t>farrah.lofton</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ethantrevi</t>
+          <t>dylan.h.nelson</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bri_0709</t>
+          <t>ramku123</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>bryan.3368_</t>
+          <t>stephannisb</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>kikiwilliams9949</t>
+          <t>lawhkim</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fari_467</t>
+          <t>pambeeepam</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>xia.papers11</t>
+          <t>johan_paniagua87</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>scott_harris_james_</t>
+          <t>clara943207</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>elizaaguilar805</t>
+          <t>edwardwang15</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>fw.robertom</t>
+          <t>cingxcing</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>juanjacksonm</t>
+          <t>claur2121</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>seper_rezaee</t>
+          <t>npr3378</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>vivianne.10</t>
+          <t>tim.wastaken</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>alinaverse</t>
+          <t>miranda_ld04</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>maneet_shah</t>
+          <t>theo.ranney</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>brian254162</t>
+          <t>keilanilim</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>anjali.kumarr</t>
+          <t>deepika_saxena1</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>alpd04</t>
+          <t>tinabwang</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>skylarbruno</t>
+          <t>nataliek.vu</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ramennguyen_</t>
+          <t>marquis_de_gramont</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>venus.alejandrez</t>
+          <t>mel_amelia015</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>calumwaldo</t>
+          <t>joo_trth</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4m4ndyk</t>
+          <t>rmv.x1</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>matteo.chiarulli</t>
+          <t>jieabram</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>david_poindexter_23</t>
+          <t>compute_nerd</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vij.leena</t>
+          <t>shawnyc</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>daniel_shinss</t>
+          <t>makennacwong</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>_pahel</t>
+          <t>jose.slgd94</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>lori_ggarcia</t>
+          <t>onebifdamily</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>rahit9970</t>
+          <t>_yyarreenn</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>asano_fleur</t>
+          <t>kat_ibanezz</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>stanley_t_s</t>
+          <t>_iris_leal</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>rolea.alex</t>
+          <t>_katiedoan</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>thebeelzebubba</t>
+          <t>misy.patterson</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>david.lapuma</t>
+          <t>klownvent</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>aryanzand1</t>
+          <t>waziri_njau</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>_._yanimgtool_</t>
+          <t>piper_fine</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>drinkloncaro</t>
+          <t>elivabeth_smith</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>brooke_weidhaas</t>
+          <t>gmagana923</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>hzyzlhzymy</t>
+          <t>chris.j.mou</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>tylerrbullock</t>
+          <t>cherryherrery</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>tushar_adya</t>
+          <t>_.hannah_t</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>rockyshaney</t>
+          <t>bagade93</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>clemo.g4022</t>
+          <t>gogter001</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>rogerreabat</t>
+          <t>rthomascali</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sam_08854</t>
+          <t>llorando17</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>jendamico1</t>
+          <t>raelynn.cora</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>_purple.yarn</t>
+          <t>karlat16</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>kruthiii_</t>
+          <t>jhoan_archbold</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>tianathequeen3</t>
+          <t>bostonicu</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>zzzyun.tingzzz</t>
+          <t>knox.choi</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>11221122hhh3356</t>
+          <t>jazzy_va99</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>thiennguyendz</t>
+          <t>cheng891120</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t_th____</t>
+          <t>l0unaxheart</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>krista_luong</t>
+          <t>pinkondust</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>wonuuola</t>
+          <t>cloveangel</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>kdubsunsethunter</t>
+          <t>cozycounselorcorner</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>kyliehallidayy</t>
+          <t>meamberingthroughlife</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>zombie_something</t>
+          <t>colecsc</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>daveglasgagram</t>
+          <t>notnice452</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>abby_leonard_guitar</t>
+          <t>utkoficial</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>jesse_su_2004</t>
+          <t>_xo_from_me_2u</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>melody.1020</t>
+          <t>uciurop</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>taylor.kendall05</t>
+          <t>manimanielle</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>leeshan_0013</t>
+          <t>sujin.park88</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>rohitde_</t>
+          <t>shahd.9722</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>misslaura184</t>
+          <t>sri_gubbala</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ryder.risic</t>
+          <t>erinsmall428</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ben.schizzy</t>
+          <t>trucha67</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>aze_pari</t>
+          <t>i.phoenix11</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>andyyu98</t>
+          <t>tiarasan_desu</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>eeeee.von</t>
+          <t>charlotte.e.rayy</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>brajib21</t>
+          <t>cindyosoriotorres</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>nani_vierralambert</t>
+          <t>magaslim2</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>averyjensennn</t>
+          <t>stephansiyambalapitiya</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>synava</t>
+          <t>ty.111111111111</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>kristerduster</t>
+          <t>tim_rogers000</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>tarunkrishnaraj</t>
+          <t>rfraley888</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>diya_menon_09</t>
+          <t>trinausessler</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>nicklilly25</t>
+          <t>therapywithlia</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>amar.reddy.hyd</t>
+          <t>persiankitty33</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>jameslopez3030</t>
+          <t>linatieu</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>jayden26l</t>
+          <t>cyw418</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ryanqwrr_we_r</t>
+          <t>uc_prints</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>niicole.valero</t>
+          <t>zoomer9927</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>zooooooe935</t>
+          <t>socalmelrich</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>aryantamhane_</t>
+          <t>alex_smiles06</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>__dengar</t>
+          <t>katrinamoore1097</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>aceswrights</t>
+          <t>briantran599</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ravingcritic</t>
+          <t>maddiegabe46</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>lizzie.kesh</t>
+          <t>manisha.singh_27</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>karen.clark.ace</t>
+          <t>xtraordinary_mary</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>gulsanemseitniiazova</t>
+          <t>mblaber</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>meghanpark00</t>
+          <t>drdt9889</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>nmclaughlin16</t>
+          <t>itzz.malayiaa</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ericqui_</t>
+          <t>navy_mang0</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>albertmihata</t>
+          <t>teddyrooseveltsbird</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>sfsu2028</t>
+          <t>jordyandaladdin</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>hiiiiiii_999</t>
+          <t>consejeria_ivs</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>mila1210</t>
+          <t>18boitumelo</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>drea.aguirre</t>
+          <t>lavanya_sreekumar</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ngozicharles11</t>
+          <t>irl.her0405</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>_leavogel</t>
+          <t>stephaniemichaliksellshomes</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>elenacd28</t>
+          <t>graciewilliams0</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>manharbajoria.05</t>
+          <t>dabramante</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>grace.wynalda</t>
+          <t>zhaolanzi7</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>frick.deric</t>
+          <t>laurenbf1</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>elizaldej104</t>
+          <t>iman_irani_1365</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>arigon_5</t>
+          <t>sulaolifer</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>l.iam.hill</t>
+          <t>all_time_low_simp</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>arian5746</t>
+          <t>laura_hank15</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>bananafl0rida</t>
+          <t>sahibrejwan</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>matansussman</t>
+          <t>j3ssie_shizuko</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>4keet</t>
+          <t>susansilvaaa</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>el_only.lara</t>
+          <t>rmw2207</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>nathaliecorona39</t>
+          <t>sydneykendler</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>mrudcraft</t>
+          <t>dayanarmirz</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>but_leo</t>
+          <t>sunaychung</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>vulenax</t>
+          <t>reykar001</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>sammaxzacmom</t>
+          <t>tpr.turkey</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>bowen_hu_8</t>
+          <t>edenfit_0804</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>laurencetokyoaveyron</t>
+          <t>amycolf</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>gmmacchia</t>
+          <t>maggie.manningg</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>gorogiiikys</t>
+          <t>zchen934</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>sirichiang</t>
+          <t>uccolsociety_</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>mich_3039</t>
+          <t>_lachabelita</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,1507 +1748,1507 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>amxndariordan</t>
+          <t>marisa__aguilar</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>34whywhywhy</t>
+          <t>marilyn_gov_</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>polaris.keira</t>
+          <t>adhamsahawneh</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>audrey_chiii</t>
+          <t>sabocanegra</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>lauren_wendt05</t>
+          <t>nooriee.h007</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>antone1229</t>
+          <t>tleex02us</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>m.williams12</t>
+          <t>starfishhh10</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>tiff.zhmy</t>
+          <t>davenguyen2023</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>jeslinvarghesee</t>
+          <t>x.melanie222</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>haley.ramirez05</t>
+          <t>rosaliekuhlmann</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>_m.kassandra._</t>
+          <t>iamchengdsexy</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>mandviwala12</t>
+          <t>zannystark</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>nkquinta</t>
+          <t>diegogz101</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>breecrooks</t>
+          <t>pyoshnaka</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>navyamahendru__</t>
+          <t>michellee_g16</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>323_osc</t>
+          <t>katelenhorn</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>christineminw</t>
+          <t>sunchen4729</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ketanmanu</t>
+          <t>jamiers3</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>soyboyvel</t>
+          <t>margiemetcalf</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>alex_o_loughlin_001</t>
+          <t>chex.er</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>itay_frenkel</t>
+          <t>char_fnco</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>duhhhman</t>
+          <t>52healthyweeks</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>lucasianflores10</t>
+          <t>ucsceaop</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>nataliesargisyan</t>
+          <t>ashleybauerle</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>stoplightpartynovember18th</t>
+          <t>alex.danyyy</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>trey.harmon312</t>
+          <t>lemme.be.2003</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>kelli.che</t>
+          <t>csufgearup</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>imnexusbtw</t>
+          <t>lylabruin91</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>absmphi314</t>
+          <t>krisi_ran</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>mmledgar2</t>
+          <t>_divya.shinde</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>madison.silva.grigorian</t>
+          <t>gael.diaz28</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>hayliecantiller</t>
+          <t>rachel.makaylaa</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>shelbylmill3r</t>
+          <t>deborah333333333</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>onanang3l</t>
+          <t>mackerel_pugh</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>liannakabab</t>
+          <t>_josephl18</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>eastfallg</t>
+          <t>kdvongxay</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>seb.cui</t>
+          <t>pshabbak</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>kinnnseyyy</t>
+          <t>bmarie18_</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ianthe.rodrigues</t>
+          <t>luluacham</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>un_hinged.www</t>
+          <t>goofy_girls</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ughhredgee</t>
+          <t>shibe6237xu9bii</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>onlyavenue_</t>
+          <t>riversidepolyptsa</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>adhi.malladi</t>
+          <t>ileana_heredia</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>sof.ia.castro</t>
+          <t>carllgroner</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>melana.ros</t>
+          <t>soniaaaa.22</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>chloe.davis78</t>
+          <t>pxchanel</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>vvtage</t>
+          <t>ssskyyy21</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>maria.kooch</t>
+          <t>jonesey34</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>femmullet</t>
+          <t>brooke_norrett</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>natalia_trounce</t>
+          <t>kissess95</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>silviaminami</t>
+          <t>healthy__soul__</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>hzq_henry</t>
+          <t>jazmin.n17</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>tanvi.chichili</t>
+          <t>laurenbeatyy</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>uciblack_</t>
+          <t>dinarussek</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>kimi__tanaka</t>
+          <t>wsaacademia3.6</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>hiepnhi175</t>
+          <t>bassemtossoun</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>markr0914</t>
+          <t>s.pancho14</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>fred_warder</t>
+          <t>shimmernbeast_</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>pctuci</t>
+          <t>mia_tarte</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>panda_ekusutorimu.28</t>
+          <t>dscgrl</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>briannaortega__</t>
+          <t>gunner_uci</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>thaliassoussa</t>
+          <t>ericchne31</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ryan_domnic</t>
+          <t>super_science_made_easy</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>codyseaa</t>
+          <t>colin.mackenzie_</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>shane.wytt</t>
+          <t>smanila28</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>stephenmsun</t>
+          <t>uci_elp</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>xandria_wawa</t>
+          <t>eedreiii</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>bloodymangledcorpse</t>
+          <t>niicole.valero</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>matt.edgar117</t>
+          <t>yasirali198413</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>beparitrenk</t>
+          <t>rashisanghi1</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>anannyabhuskat</t>
+          <t>gulugulu2175</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>kingofsnakes007</t>
+          <t>ptao33</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ritvik.sinha_</t>
+          <t>becca_r0gers</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>9300_alia</t>
+          <t>ian.case</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>melissa__vonne</t>
+          <t>michaelyuratich</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>exhalewellnessmh23</t>
+          <t>mooreginny</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>veronicathebaker</t>
+          <t>vora.mitesh</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>kk.immy</t>
+          <t>danielraboca</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>angmarieee</t>
+          <t>aaronmh505</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>elsie_estellee</t>
+          <t>rihan.shetty8</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>hh0_david</t>
+          <t>bethier</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>sariyah123st</t>
+          <t>jessica.m.lacombe</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>avaadlerr</t>
+          <t>natalyhx</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>miguel.jimenezzzzz</t>
+          <t>ucilaw</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>llovellee</t>
+          <t>pedrobettoo</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>henrylan_uci</t>
+          <t>etienne_l132</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>tutuzinho.limao</t>
+          <t>ch.idera4320</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>louie1347</t>
+          <t>abhi.anejaa</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>_._rewa_._</t>
+          <t>jeslinvarghesee</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>angelagetsit</t>
+          <t>riohondo_ags</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>djonypour</t>
+          <t>megmeg7707</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>sofia_carrillo52</t>
+          <t>jangator</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t_tang_3</t>
+          <t>samrz358</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>fatimahdez05</t>
+          <t>well_less_man</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>bryanjiangg</t>
+          <t>_strawberrriees_</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>vyokshaw</t>
+          <t>marinag310</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>chen.g9759</t>
+          <t>tthornt_916</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>yasinabdalla_</t>
+          <t>diyas_sstar</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>_.samsalazar_</t>
+          <t>bridget.bershad</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>rosiebuggles_</t>
+          <t>jserracounseling</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>carmenkimura34</t>
+          <t>amie.herreraa</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>madelynjsung</t>
+          <t>therealkenmerc</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>shellerinka</t>
+          <t>yasaminnn4_</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>_mehek.b_</t>
+          <t>jamall.daviss</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>elginn.v</t>
+          <t>f.u.n.k.e.d__u.p</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>armanoid_creature</t>
+          <t>kassandrav9</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>sandra_ennis07</t>
+          <t>cookies.n.tea</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>henrythedang</t>
+          <t>3down1up</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>vajraaang</t>
+          <t>uptownpolash</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>fya.adriann</t>
+          <t>nexerdie</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>michellatrevino</t>
+          <t>boramjuliet</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>foodie_steph_123x</t>
+          <t>sahikaaltas</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>gio_jara450</t>
+          <t>hallo.nathanhere</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>rileyspeltwrong</t>
+          <t>shelly_smith_mccullough</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>kim_carol12345</t>
+          <t>arunamantri</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>alex.rexkaster</t>
+          <t>paty7perez</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>de.l.s</t>
+          <t>melimossshineon</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>_jasminekinong</t>
+          <t>mmcast24</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>aries_dancer</t>
+          <t>jazztrueyes</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>angiech7ng</t>
+          <t>82tadashi</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>iamsimpash</t>
+          <t>charlie.genesis18</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>yanggao1999</t>
+          <t>kashee33</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>murielsaker</t>
+          <t>fatima.waqar5243</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>byyy.nathan</t>
+          <t>jennifer.rufusi</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>hemendra.shroff</t>
+          <t>sri_knkla</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>kaylapablo</t>
+          <t>sophiasimonelli_</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>phealth_society</t>
+          <t>carrielei</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ronaldpg0214</t>
+          <t>wahupaub</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>erika.monge96</t>
+          <t>_xelight</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>the_trayn</t>
+          <t>ellynne_volleyball2</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>shweta_pawar28</t>
+          <t>nooshinejan</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>carsvnm</t>
+          <t>vedant_madabushi</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>paula_can</t>
+          <t>amelialinneaa_</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>evan_li_497</t>
+          <t>erins624</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>klemmspringer</t>
+          <t>hannahymo</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>elijah.rowe.movement</t>
+          <t>heyo_it_mayo</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>nic.anx</t>
+          <t>bethrashed</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ucicricket</t>
+          <t>amypinsondumm</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>pmb_bri</t>
+          <t>yigui_1969</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>saraogi.krishna</t>
+          <t>babylovebucket</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>petra_esc27</t>
+          <t>katealjerie</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>gabbydowny_101</t>
+          <t>seper_rezaee</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>lauren_alexis247</t>
+          <t>lily_sarah0908</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>g.eeeen</t>
+          <t>sstevpok</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>jhust.m</t>
+          <t>rickson.charlie</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>emmaochoaaa</t>
+          <t>yaboiihariss</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>bumbledar4</t>
+          <t>jesusyastawusal</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>mattayabe</t>
+          <t>privateuser2417</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>_daboyunic_</t>
+          <t>doreen.rod6</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>helene_longenbaugh</t>
+          <t>pulidobere</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>debbiepearsonnn</t>
+          <t>cdrey5</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>hannie_rose</t>
+          <t>catsazevedo</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>realdileepmenon</t>
+          <t>rylie._.06</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>studioyaoling</t>
+          <t>sun.chip6286</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>andrewpacheco__</t>
+          <t>josh_wlhlm</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>saraa.long</t>
+          <t>lucaschacko15</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>habibyoussefenglish</t>
+          <t>gracie.elizabeth0_</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>jpreeti79</t>
+          <t>kannika_pal</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>brettchampagne2</t>
+          <t>r_varun53</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>aditi_bhavsar</t>
+          <t>cute_natty_02</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>william.drobish</t>
+          <t>s_a_b.hieu</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>lemxsp</t>
+          <t>k_ar.l_a</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>chieng_papers21</t>
+          <t>saucetreedigip</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>_nini.kung_</t>
+          <t>bologna_claudia</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>shamik.dandekar</t>
+          <t>veronica_corvera</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>frannyh05</t>
+          <t>brookelwoods_</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>noel_bangun</t>
+          <t>in0rp</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>haleighc29</t>
+          <t>akhilalhill</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>pura_vida_nikki</t>
+          <t>the_kekoa_tyler</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>__get_vaccinated__</t>
+          <t>046vl</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>n.paski</t>
+          <t>andrew.benet</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>kayleesyvone</t>
+          <t>yyun11a</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>julietteslk</t>
+          <t>pierre_abrahamm</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>sports_da_goat</t>
+          <t>mikaellabanagudos</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>jonnkings</t>
+          <t>hellwem</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>sophiaphyllis</t>
+          <t>jenlouhus</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>_ncolas_</t>
+          <t>exodus.fesili</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>___lecea</t>
+          <t>anirudhkmandala</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>cherry.canlas</t>
+          <t>vale_kev04</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>meg_mmg</t>
+          <t>nic0la_samar</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>areezakabani</t>
+          <t>yobexx</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>kline2257</t>
+          <t>katie_cage_981</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>kkayla__lee</t>
+          <t>chloeogn</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>slmafsl_.19</t>
+          <t>linleigh722</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>alxndr_416</t>
+          <t>yanghermioneou</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>jackxnk</t>
+          <t>aadarsh_patel8933</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>cubbydoryon</t>
+          <t>hennessymcgowan</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>lg_creation869</t>
+          <t>youcanthavemychips</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>diyas_sstar</t>
+          <t>therosasfam</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>daus6813</t>
+          <t>annepark</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>xochitlgilchrist</t>
+          <t>kendall.bristol</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>sadamthayir</t>
+          <t>dariiagilyuk</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>chieng_papers05</t>
+          <t>andreagerber</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>johntsarni_67</t>
+          <t>clemmmmieeee</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>vousmevoyez_itsl</t>
+          <t>crystaall_a</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,520 +3698,10 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>karem.ell</t>
+          <t>galvarengab</t>
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>jjasminechang</t>
-        </is>
-      </c>
-      <c r="B328" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>christyjlau</t>
-        </is>
-      </c>
-      <c r="B329" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>davidlopezz.22</t>
-        </is>
-      </c>
-      <c r="B330" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>andrea.gonzalezzzzz</t>
-        </is>
-      </c>
-      <c r="B331" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>mw1011_</t>
-        </is>
-      </c>
-      <c r="B332" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>agatha_lui</t>
-        </is>
-      </c>
-      <c r="B333" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>aara.v.singh</t>
-        </is>
-      </c>
-      <c r="B334" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>jackrockwell04</t>
-        </is>
-      </c>
-      <c r="B335" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>lawgates</t>
-        </is>
-      </c>
-      <c r="B336" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>_dbduddn_</t>
-        </is>
-      </c>
-      <c r="B337" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>reyn.y</t>
-        </is>
-      </c>
-      <c r="B338" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>ritubajoria</t>
-        </is>
-      </c>
-      <c r="B339" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>jamestown.wrightness</t>
-        </is>
-      </c>
-      <c r="B340" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>mo0nirror</t>
-        </is>
-      </c>
-      <c r="B341" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>graciewilliams0</t>
-        </is>
-      </c>
-      <c r="B342" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>cannedcoke_</t>
-        </is>
-      </c>
-      <c r="B343" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>_emmaedwardss</t>
-        </is>
-      </c>
-      <c r="B344" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>ramku123</t>
-        </is>
-      </c>
-      <c r="B345" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>sophiapshao</t>
-        </is>
-      </c>
-      <c r="B346" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>vic_v.o</t>
-        </is>
-      </c>
-      <c r="B347" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>shannon_b844</t>
-        </is>
-      </c>
-      <c r="B348" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>zach.robb1</t>
-        </is>
-      </c>
-      <c r="B349" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>charlotte.e.rayy</t>
-        </is>
-      </c>
-      <c r="B350" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>serap_whitmer</t>
-        </is>
-      </c>
-      <c r="B351" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>ctinomama</t>
-        </is>
-      </c>
-      <c r="B352" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>johnson.dahlia</t>
-        </is>
-      </c>
-      <c r="B353" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>madalyn.k4</t>
-        </is>
-      </c>
-      <c r="B354" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>samantha.chanee</t>
-        </is>
-      </c>
-      <c r="B355" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>patosgrife</t>
-        </is>
-      </c>
-      <c r="B356" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>motofz</t>
-        </is>
-      </c>
-      <c r="B357" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>vaaleriq._</t>
-        </is>
-      </c>
-      <c r="B358" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>cameron.getz</t>
-        </is>
-      </c>
-      <c r="B359" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>x_a_n_d_d_e_r</t>
-        </is>
-      </c>
-      <c r="B360" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>avaterese_</t>
-        </is>
-      </c>
-      <c r="B361" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>love_from_kayla</t>
-        </is>
-      </c>
-      <c r="B362" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>just.jeremixh_12</t>
-        </is>
-      </c>
-      <c r="B363" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>btw_itz_anahi</t>
-        </is>
-      </c>
-      <c r="B364" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>han_cao__</t>
-        </is>
-      </c>
-      <c r="B365" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>jinal.patelll</t>
-        </is>
-      </c>
-      <c r="B366" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>megannstephens</t>
-        </is>
-      </c>
-      <c r="B367" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>taylor.carr05</t>
-        </is>
-      </c>
-      <c r="B368" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>2lanaellen</t>
-        </is>
-      </c>
-      <c r="B369" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>carolinebetude</t>
-        </is>
-      </c>
-      <c r="B370" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>kim.w.am</t>
-        </is>
-      </c>
-      <c r="B371" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>layla.feilds</t>
-        </is>
-      </c>
-      <c r="B372" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>tanisha.singh__</t>
-        </is>
-      </c>
-      <c r="B373" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>ethan.hatch36</t>
-        </is>
-      </c>
-      <c r="B374" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>a1anmar1n</t>
-        </is>
-      </c>
-      <c r="B375" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>co_oppilatesoc</t>
-        </is>
-      </c>
-      <c r="B376" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>annabel_ow</t>
-        </is>
-      </c>
-      <c r="B377" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>bonggamom</t>
-        </is>
-      </c>
-      <c r="B378" t="b">
         <v>0</v>
       </c>
     </row>
